--- a/src/main/resources/voucher_template.xlsx
+++ b/src/main/resources/voucher_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\工作\定制游\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weici\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Booked by EYOUNZ LTD</t>
   </si>
@@ -87,14 +87,6 @@
   </si>
   <si>
     <t>REMARKS</t>
-  </si>
-  <si>
-    <t>SIJUE WANG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 adults</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行程公司</t>
@@ -113,27 +105,41 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Real Journey</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0800 65 65 01 或 0064 (03) 249 6000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Te Anau Glowworm Caves</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">the Real Journeys Visitor Centre Te Anau, located at 85 Lakefront Drive. </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>1013394</t>
+  </si>
+  <si>
+    <t>1000 HINEMOA STREET, ROTORUA, NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>Polynesian Spa</t>
+  </si>
+  <si>
+    <t>0508 765 977</t>
+  </si>
+  <si>
+    <t>Rotorua Polynesian Spa-DELUXE LAKE SPA 罗托鲁瓦-波利尼西亚温泉(Polynesian Spa)-豪华湖畔温泉</t>
+  </si>
+  <si>
+    <t>2017-01-21(yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>8:00-23:00</t>
+  </si>
+  <si>
+    <t>Yuanwei Cheng</t>
+  </si>
+  <si>
+    <t>4 Adult  &amp; 2 Child</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -215,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,21 +224,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -248,6 +235,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +660,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E10" sqref="E10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,18 +670,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="H2" s="1"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -697,11 +693,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="3">
-        <v>6313119</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -711,11 +709,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="4">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -725,47 +723,47 @@
         <v>8</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -773,11 +771,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -787,11 +787,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="5">
-        <v>42661</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -801,11 +803,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="4">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -815,11 +819,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -829,11 +835,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -843,18 +851,27 @@
         <v>20</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E14:I14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -871,7 +888,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -884,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/src/main/resources/voucher_template.xlsx
+++ b/src/main/resources/voucher_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weici\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="8430"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33520" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,22 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Booked by EYOUNZ LTD</t>
   </si>
@@ -133,6 +141,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>门票形式</t>
+  </si>
+  <si>
+    <t>TICKET INFO</t>
   </si>
 </sst>
 </file>
@@ -143,7 +157,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -179,14 +193,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,12 +241,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -247,10 +261,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -353,13 +367,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -369,8 +383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3781425"/>
-          <a:ext cx="6343650" cy="0"/>
+          <a:off x="9525" y="4289425"/>
+          <a:ext cx="6346825" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -657,35 +671,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:I10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="H1" s="1"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -701,7 +715,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -715,7 +729,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -723,15 +737,15 @@
         <v>8</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -747,7 +761,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -755,15 +769,15 @@
         <v>24</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -779,7 +793,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -795,7 +809,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -811,7 +825,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -827,7 +841,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -843,7 +857,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -851,22 +865,39 @@
         <v>20</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E16:I16"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E8:I8"/>
@@ -886,7 +917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -899,7 +930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
